--- a/docs/results/Testbed_4/results_testbed4.xlsx
+++ b/docs/results/Testbed_4/results_testbed4.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5448" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5468" uniqueCount="247">
   <si>
     <t>Starting global run 1 using dataset data/30mio.csv</t>
   </si>
@@ -759,6 +759,30 @@
   <si>
     <t>Query8 "Wie groß ist die erzeugte Leistung von Wechselrichter X durchschnittlich pro Temperaturstufe? (d.h. Durchschnitt von PAC je Wert der Temperaturzeitreihe)" (2x MapReduce)</t>
   </si>
+  <si>
+    <t>Query1</t>
+  </si>
+  <si>
+    <t>Query2</t>
+  </si>
+  <si>
+    <t>Query3</t>
+  </si>
+  <si>
+    <t>Query4</t>
+  </si>
+  <si>
+    <t>Query5 (MapReduce)</t>
+  </si>
+  <si>
+    <t>Query6 (MapReduce)</t>
+  </si>
+  <si>
+    <t>Query7 (MapReduce)</t>
+  </si>
+  <si>
+    <t>Query8 (2x MapReduce)</t>
+  </si>
 </sst>
 </file>
 
@@ -12401,31 +12425,67 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="113747072"/>
-        <c:axId val="113748608"/>
+        <c:axId val="137822208"/>
+        <c:axId val="137824512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113747072"/>
+        <c:axId val="137822208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>#Documents</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113748608"/>
+        <c:crossAx val="137824512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113748608"/>
+        <c:axId val="137824512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>t[ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113747072"/>
+        <c:crossAx val="137822208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12438,7 +12498,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12662,11 +12722,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120928128"/>
-        <c:axId val="120975360"/>
+        <c:axId val="151418368"/>
+        <c:axId val="151420288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120928128"/>
+        <c:axId val="151418368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12689,14 +12749,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120975360"/>
+        <c:crossAx val="151420288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120975360"/>
+        <c:axId val="151420288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -12722,7 +12782,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120928128"/>
+        <c:crossAx val="151418368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12862,11 +12922,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120851840"/>
-        <c:axId val="120866304"/>
+        <c:axId val="151432192"/>
+        <c:axId val="151528576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120851840"/>
+        <c:axId val="151432192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12889,14 +12949,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120866304"/>
+        <c:crossAx val="151528576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120866304"/>
+        <c:axId val="151528576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12921,7 +12981,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120851840"/>
+        <c:crossAx val="151432192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13058,11 +13118,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="120898688"/>
-        <c:axId val="120900608"/>
+        <c:axId val="151556864"/>
+        <c:axId val="151558784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120898688"/>
+        <c:axId val="151556864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13085,14 +13145,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120900608"/>
+        <c:crossAx val="151558784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120900608"/>
+        <c:axId val="151558784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13117,7 +13177,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120898688"/>
+        <c:crossAx val="151556864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13259,11 +13319,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="120912512"/>
-        <c:axId val="121000704"/>
+        <c:axId val="151562880"/>
+        <c:axId val="151593344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120912512"/>
+        <c:axId val="151562880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13286,14 +13346,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121000704"/>
+        <c:crossAx val="151593344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121000704"/>
+        <c:axId val="151593344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13318,7 +13378,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120912512"/>
+        <c:crossAx val="151562880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13551,11 +13611,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="121189504"/>
-        <c:axId val="121191424"/>
+        <c:axId val="151642880"/>
+        <c:axId val="151644800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121189504"/>
+        <c:axId val="151642880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13578,14 +13638,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121191424"/>
+        <c:crossAx val="151644800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121191424"/>
+        <c:axId val="151644800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -13611,7 +13671,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121189504"/>
+        <c:crossAx val="151642880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13745,11 +13805,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="121207424"/>
-        <c:axId val="121225984"/>
+        <c:axId val="151484672"/>
+        <c:axId val="151486848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121207424"/>
+        <c:axId val="151484672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13772,14 +13832,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121225984"/>
+        <c:crossAx val="151486848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121225984"/>
+        <c:axId val="151486848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13804,7 +13864,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121207424"/>
+        <c:crossAx val="151484672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13941,11 +14001,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="121065856"/>
-        <c:axId val="121067776"/>
+        <c:axId val="152764416"/>
+        <c:axId val="152766336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121065856"/>
+        <c:axId val="152764416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13968,14 +14028,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121067776"/>
+        <c:crossAx val="152766336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121067776"/>
+        <c:axId val="152766336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14000,7 +14060,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121065856"/>
+        <c:crossAx val="152764416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14142,11 +14202,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="121083776"/>
-        <c:axId val="121085952"/>
+        <c:axId val="152790528"/>
+        <c:axId val="152792448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121083776"/>
+        <c:axId val="152790528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14169,14 +14229,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121085952"/>
+        <c:crossAx val="152792448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121085952"/>
+        <c:axId val="152792448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14201,7 +14261,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121083776"/>
+        <c:crossAx val="152790528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14434,11 +14494,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="121368960"/>
-        <c:axId val="121370880"/>
+        <c:axId val="152956928"/>
+        <c:axId val="152958848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121368960"/>
+        <c:axId val="152956928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14461,14 +14521,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121370880"/>
+        <c:crossAx val="152958848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121370880"/>
+        <c:axId val="152958848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -14494,7 +14554,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121368960"/>
+        <c:crossAx val="152956928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14628,11 +14688,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="121415552"/>
-        <c:axId val="121434112"/>
+        <c:axId val="152839680"/>
+        <c:axId val="152841600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121415552"/>
+        <c:axId val="152839680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14655,14 +14715,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121434112"/>
+        <c:crossAx val="152841600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121434112"/>
+        <c:axId val="152841600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14687,7 +14747,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121415552"/>
+        <c:crossAx val="152839680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14920,11 +14980,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="113765760"/>
-        <c:axId val="117544448"/>
+        <c:axId val="137776128"/>
+        <c:axId val="137806976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113765760"/>
+        <c:axId val="137776128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14947,14 +15007,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117544448"/>
+        <c:crossAx val="137806976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117544448"/>
+        <c:axId val="137806976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -14980,7 +15040,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113765760"/>
+        <c:crossAx val="137776128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15117,11 +15177,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="121253248"/>
-        <c:axId val="121267712"/>
+        <c:axId val="152878080"/>
+        <c:axId val="152884352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121253248"/>
+        <c:axId val="152878080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15144,14 +15204,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121267712"/>
+        <c:crossAx val="152884352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121267712"/>
+        <c:axId val="152884352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15176,7 +15236,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121253248"/>
+        <c:crossAx val="152878080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15318,11 +15378,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="121287808"/>
-        <c:axId val="121289728"/>
+        <c:axId val="152986368"/>
+        <c:axId val="152988288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121287808"/>
+        <c:axId val="152986368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15345,14 +15405,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121289728"/>
+        <c:crossAx val="152988288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121289728"/>
+        <c:axId val="152988288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15377,7 +15437,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121287808"/>
+        <c:crossAx val="152986368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15610,11 +15670,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="122854784"/>
-        <c:axId val="122869248"/>
+        <c:axId val="153029632"/>
+        <c:axId val="153044096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122854784"/>
+        <c:axId val="153029632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15637,14 +15697,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122869248"/>
+        <c:crossAx val="153044096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122869248"/>
+        <c:axId val="153044096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -15670,7 +15730,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122854784"/>
+        <c:crossAx val="153029632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15804,11 +15864,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="122889344"/>
-        <c:axId val="122891264"/>
+        <c:axId val="153076480"/>
+        <c:axId val="153078400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122889344"/>
+        <c:axId val="153076480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15831,14 +15891,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122891264"/>
+        <c:crossAx val="153078400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122891264"/>
+        <c:axId val="153078400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15863,7 +15923,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122889344"/>
+        <c:crossAx val="153076480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16000,11 +16060,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="122915456"/>
-        <c:axId val="122942208"/>
+        <c:axId val="153090304"/>
+        <c:axId val="153104768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122915456"/>
+        <c:axId val="153090304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16027,14 +16087,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122942208"/>
+        <c:crossAx val="153104768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122942208"/>
+        <c:axId val="153104768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16059,7 +16119,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122915456"/>
+        <c:crossAx val="153090304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16201,11 +16261,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="122925440"/>
-        <c:axId val="122927360"/>
+        <c:axId val="153137152"/>
+        <c:axId val="153139072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122925440"/>
+        <c:axId val="153137152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16228,14 +16288,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122927360"/>
+        <c:crossAx val="153139072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122927360"/>
+        <c:axId val="153139072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16260,7 +16320,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122925440"/>
+        <c:crossAx val="153137152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16493,11 +16553,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="123013760"/>
-        <c:axId val="123052800"/>
+        <c:axId val="153372928"/>
+        <c:axId val="153379200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="123013760"/>
+        <c:axId val="153372928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16520,14 +16580,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123052800"/>
+        <c:crossAx val="153379200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123052800"/>
+        <c:axId val="153379200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -16553,7 +16613,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123013760"/>
+        <c:crossAx val="153372928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16687,11 +16747,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="123105664"/>
-        <c:axId val="123107584"/>
+        <c:axId val="153403392"/>
+        <c:axId val="153405312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="123105664"/>
+        <c:axId val="153403392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16714,14 +16774,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123107584"/>
+        <c:crossAx val="153405312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123107584"/>
+        <c:axId val="153405312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16746,7 +16806,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123105664"/>
+        <c:crossAx val="153403392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16883,11 +16943,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="123119488"/>
-        <c:axId val="123133952"/>
+        <c:axId val="153314816"/>
+        <c:axId val="153316736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123119488"/>
+        <c:axId val="153314816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16910,14 +16970,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123133952"/>
+        <c:crossAx val="153316736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123133952"/>
+        <c:axId val="153316736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16942,7 +17002,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123119488"/>
+        <c:crossAx val="153314816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17084,11 +17144,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="123145600"/>
-        <c:axId val="123160064"/>
+        <c:axId val="153324928"/>
+        <c:axId val="153347200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123145600"/>
+        <c:axId val="153324928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17111,14 +17171,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123160064"/>
+        <c:crossAx val="153347200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123160064"/>
+        <c:axId val="153347200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17143,7 +17203,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123145600"/>
+        <c:crossAx val="153324928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17277,11 +17337,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="117560448"/>
-        <c:axId val="117562368"/>
+        <c:axId val="136209152"/>
+        <c:axId val="136211072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117560448"/>
+        <c:axId val="136209152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17304,14 +17364,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117562368"/>
+        <c:crossAx val="136211072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117562368"/>
+        <c:axId val="136211072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17336,7 +17396,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117560448"/>
+        <c:crossAx val="136209152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17376,6 +17436,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -17569,11 +17630,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="123209600"/>
-        <c:axId val="123224064"/>
+        <c:axId val="153724416"/>
+        <c:axId val="153726336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="123209600"/>
+        <c:axId val="153724416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17594,16 +17655,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123224064"/>
+        <c:crossAx val="153726336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123224064"/>
+        <c:axId val="153726336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -17626,10 +17688,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123209600"/>
+        <c:crossAx val="153724416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17664,6 +17727,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -17763,11 +17827,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="123239808"/>
-        <c:axId val="123258368"/>
+        <c:axId val="153762816"/>
+        <c:axId val="153777280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="123239808"/>
+        <c:axId val="153762816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17788,16 +17852,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123258368"/>
+        <c:crossAx val="153777280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123258368"/>
+        <c:axId val="153777280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17819,10 +17884,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123239808"/>
+        <c:crossAx val="153762816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17857,6 +17923,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -17959,11 +18026,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="123290752"/>
-        <c:axId val="123292672"/>
+        <c:axId val="153789184"/>
+        <c:axId val="153791104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123290752"/>
+        <c:axId val="153789184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17984,16 +18051,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123292672"/>
+        <c:crossAx val="153791104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123292672"/>
+        <c:axId val="153791104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18015,10 +18083,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123290752"/>
+        <c:crossAx val="153789184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18058,6 +18127,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -18160,11 +18230,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="123312768"/>
-        <c:axId val="123327232"/>
+        <c:axId val="153823488"/>
+        <c:axId val="153850240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123312768"/>
+        <c:axId val="153823488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18185,16 +18255,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123327232"/>
+        <c:crossAx val="153850240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123327232"/>
+        <c:axId val="153850240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18216,10 +18287,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123312768"/>
+        <c:crossAx val="153823488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19122,11 +19194,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="123504896"/>
-        <c:axId val="123519360"/>
+        <c:axId val="154011904"/>
+        <c:axId val="154022272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123504896"/>
+        <c:axId val="154011904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19150,14 +19222,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123519360"/>
+        <c:crossAx val="154022272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123519360"/>
+        <c:axId val="154022272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19183,7 +19255,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123504896"/>
+        <c:crossAx val="154011904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000"/>
@@ -19197,7 +19269,970 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Query Performance 360M Documents</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combined!$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Query1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Combined!$B$44:$M$44</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>30M</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180M</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210M</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240M</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270M</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300M</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>330M</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>360M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Combined!$B$45:$M$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>291.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>523.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>519.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>518.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>534.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>534.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>528.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>631.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>605.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>602.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>648.20000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combined!$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Query2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Combined!$B$44:$M$44</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>30M</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180M</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210M</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240M</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270M</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300M</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>330M</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>360M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Combined!$B$46:$M$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combined!$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Query3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Combined!$B$44:$M$44</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>30M</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180M</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210M</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240M</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270M</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300M</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>330M</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>360M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Combined!$B$47:$M$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>303.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>433.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>511.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>505.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>650.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>503.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>645.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>499.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>528.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>478.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>514.70000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combined!$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Query4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Combined!$B$44:$M$44</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>30M</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180M</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210M</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240M</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270M</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300M</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>330M</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>360M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Combined!$B$48:$M$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combined!$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Query5 (MapReduce)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Combined!$B$44:$M$44</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>30M</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180M</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210M</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240M</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270M</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300M</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>330M</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>360M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Combined!$B$49:$M$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4253.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4749.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4893.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4767.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4840.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4938.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4844.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4709.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4912.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4989.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4814.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5009.1000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combined!$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Query6 (MapReduce)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Combined!$B$44:$M$44</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>30M</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180M</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210M</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240M</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270M</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300M</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>330M</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>360M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Combined!$B$50:$M$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16264</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16358.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15959.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16183.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16199.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15883.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15634.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15822.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15775.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15742.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15991.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combined!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Query7 (MapReduce)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Combined!$B$44:$M$44</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>30M</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180M</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210M</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240M</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270M</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300M</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>330M</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>360M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Combined!$B$51:$M$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5303.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5480.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5524.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5418.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5371.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5575.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5476.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5478.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5729.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5402</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5417.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combined!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Query8 (2x MapReduce)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Combined!$B$44:$M$44</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>30M</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180M</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210M</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240M</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270M</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300M</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>330M</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>360M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Combined!$B$52:$M$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>18219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19841</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18778.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18975.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18844.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19231.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18751.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19134.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18824.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19045.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18714.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18897.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="83804160"/>
+        <c:axId val="83805696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="83804160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>#Documents</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83805696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="83805696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>t [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83804160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -19325,11 +20360,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="117586560"/>
-        <c:axId val="117588736"/>
+        <c:axId val="134535424"/>
+        <c:axId val="136237440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117586560"/>
+        <c:axId val="134535424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19352,14 +20387,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117588736"/>
+        <c:crossAx val="136237440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117588736"/>
+        <c:axId val="136237440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19384,7 +20419,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117586560"/>
+        <c:crossAx val="134535424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19526,11 +20561,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="117608832"/>
-        <c:axId val="117610752"/>
+        <c:axId val="137871360"/>
+        <c:axId val="137873280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117608832"/>
+        <c:axId val="137871360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19553,14 +20588,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117610752"/>
+        <c:crossAx val="137873280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117610752"/>
+        <c:axId val="137873280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19585,7 +20620,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117608832"/>
+        <c:crossAx val="137871360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19818,11 +20853,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="119102080"/>
-        <c:axId val="119128832"/>
+        <c:axId val="138082560"/>
+        <c:axId val="151019904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119102080"/>
+        <c:axId val="138082560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19845,14 +20880,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119128832"/>
+        <c:crossAx val="151019904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119128832"/>
+        <c:axId val="151019904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -19878,7 +20913,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119102080"/>
+        <c:crossAx val="138082560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20012,11 +21047,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="119148928"/>
-        <c:axId val="119150848"/>
+        <c:axId val="151040000"/>
+        <c:axId val="151041920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119148928"/>
+        <c:axId val="151040000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20039,14 +21074,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119150848"/>
+        <c:crossAx val="151041920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119150848"/>
+        <c:axId val="151041920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20071,7 +21106,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119148928"/>
+        <c:crossAx val="151040000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20208,11 +21243,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="119187328"/>
-        <c:axId val="120520704"/>
+        <c:axId val="151336448"/>
+        <c:axId val="151338368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119187328"/>
+        <c:axId val="151336448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20235,14 +21270,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120520704"/>
+        <c:crossAx val="151338368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120520704"/>
+        <c:axId val="151338368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20267,7 +21302,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119187328"/>
+        <c:crossAx val="151336448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20409,11 +21444,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="120540544"/>
-        <c:axId val="120546816"/>
+        <c:axId val="151362560"/>
+        <c:axId val="150930560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120540544"/>
+        <c:axId val="151362560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20436,14 +21471,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120546816"/>
+        <c:crossAx val="150930560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120546816"/>
+        <c:axId val="150930560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20468,7 +21503,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120540544"/>
+        <c:crossAx val="151362560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20545,6 +21580,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9648825</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -55575,10 +56640,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -55949,6 +57014,372 @@
         <v>18714.400000000001</v>
       </c>
       <c r="M9">
+        <v>18897.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="B44" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" t="s">
+        <v>179</v>
+      </c>
+      <c r="F44" t="s">
+        <v>180</v>
+      </c>
+      <c r="G44" t="s">
+        <v>181</v>
+      </c>
+      <c r="H44" t="s">
+        <v>182</v>
+      </c>
+      <c r="I44" t="s">
+        <v>183</v>
+      </c>
+      <c r="J44" t="s">
+        <v>184</v>
+      </c>
+      <c r="K44" t="s">
+        <v>185</v>
+      </c>
+      <c r="L44" t="s">
+        <v>186</v>
+      </c>
+      <c r="M44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>239</v>
+      </c>
+      <c r="B45">
+        <v>291.3</v>
+      </c>
+      <c r="C45">
+        <v>523.5</v>
+      </c>
+      <c r="D45">
+        <v>519.9</v>
+      </c>
+      <c r="E45">
+        <v>518.4</v>
+      </c>
+      <c r="F45">
+        <v>534.79999999999995</v>
+      </c>
+      <c r="G45">
+        <v>534.9</v>
+      </c>
+      <c r="H45">
+        <v>500.6</v>
+      </c>
+      <c r="I45">
+        <v>528.70000000000005</v>
+      </c>
+      <c r="J45">
+        <v>631.5</v>
+      </c>
+      <c r="K45">
+        <v>605.29999999999995</v>
+      </c>
+      <c r="L45">
+        <v>602.6</v>
+      </c>
+      <c r="M45">
+        <v>648.20000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46">
+        <v>0.5</v>
+      </c>
+      <c r="C46">
+        <v>6.8</v>
+      </c>
+      <c r="D46">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E46">
+        <v>8.5</v>
+      </c>
+      <c r="F46">
+        <v>11.9</v>
+      </c>
+      <c r="G46">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H46">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I46">
+        <v>13.5</v>
+      </c>
+      <c r="J46">
+        <v>28.8</v>
+      </c>
+      <c r="K46">
+        <v>14.3</v>
+      </c>
+      <c r="L46">
+        <v>14.6</v>
+      </c>
+      <c r="M46">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="C47">
+        <v>433.4</v>
+      </c>
+      <c r="D47">
+        <v>410</v>
+      </c>
+      <c r="E47">
+        <v>511.6</v>
+      </c>
+      <c r="F47">
+        <v>505.4</v>
+      </c>
+      <c r="G47">
+        <v>650.4</v>
+      </c>
+      <c r="H47">
+        <v>503.3</v>
+      </c>
+      <c r="I47">
+        <v>645.20000000000005</v>
+      </c>
+      <c r="J47">
+        <v>499.7</v>
+      </c>
+      <c r="K47">
+        <v>528.29999999999995</v>
+      </c>
+      <c r="L47">
+        <v>478.5</v>
+      </c>
+      <c r="M47">
+        <v>514.70000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48">
+        <v>2.5</v>
+      </c>
+      <c r="C48">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D48">
+        <v>12</v>
+      </c>
+      <c r="E48">
+        <v>11.9</v>
+      </c>
+      <c r="F48">
+        <v>18</v>
+      </c>
+      <c r="G48">
+        <v>16.7</v>
+      </c>
+      <c r="H48">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="I48">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J48">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="K48">
+        <v>22.3</v>
+      </c>
+      <c r="L48">
+        <v>21.9</v>
+      </c>
+      <c r="M48">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49">
+        <v>4253.8</v>
+      </c>
+      <c r="C49">
+        <v>4749.7</v>
+      </c>
+      <c r="D49">
+        <v>4893.3</v>
+      </c>
+      <c r="E49">
+        <v>4767.8</v>
+      </c>
+      <c r="F49">
+        <v>4840.5</v>
+      </c>
+      <c r="G49">
+        <v>4938.8999999999996</v>
+      </c>
+      <c r="H49">
+        <v>4844.1000000000004</v>
+      </c>
+      <c r="I49">
+        <v>4709.3999999999996</v>
+      </c>
+      <c r="J49">
+        <v>4912.7</v>
+      </c>
+      <c r="K49">
+        <v>4989.1000000000004</v>
+      </c>
+      <c r="L49">
+        <v>4814.6000000000004</v>
+      </c>
+      <c r="M49">
+        <v>5009.1000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B50">
+        <v>16264</v>
+      </c>
+      <c r="C50">
+        <v>16358.8</v>
+      </c>
+      <c r="D50">
+        <v>16446</v>
+      </c>
+      <c r="E50">
+        <v>15959.5</v>
+      </c>
+      <c r="F50">
+        <v>16183.5</v>
+      </c>
+      <c r="G50">
+        <v>16199.5</v>
+      </c>
+      <c r="H50">
+        <v>15883.8</v>
+      </c>
+      <c r="I50">
+        <v>15634.1</v>
+      </c>
+      <c r="J50">
+        <v>15822.2</v>
+      </c>
+      <c r="K50">
+        <v>15775.1</v>
+      </c>
+      <c r="L50">
+        <v>15742.7</v>
+      </c>
+      <c r="M50">
+        <v>15991.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>245</v>
+      </c>
+      <c r="B51">
+        <v>5303.6</v>
+      </c>
+      <c r="C51">
+        <v>5480.5</v>
+      </c>
+      <c r="D51">
+        <v>5524.5</v>
+      </c>
+      <c r="E51">
+        <v>5418.7</v>
+      </c>
+      <c r="F51">
+        <v>5371.5</v>
+      </c>
+      <c r="G51">
+        <v>5575.5</v>
+      </c>
+      <c r="H51">
+        <v>5476.8</v>
+      </c>
+      <c r="I51">
+        <v>5478.5</v>
+      </c>
+      <c r="J51">
+        <v>5729.3</v>
+      </c>
+      <c r="K51">
+        <v>5402</v>
+      </c>
+      <c r="L51">
+        <v>5301</v>
+      </c>
+      <c r="M51">
+        <v>5417.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>246</v>
+      </c>
+      <c r="B52">
+        <v>18219</v>
+      </c>
+      <c r="C52">
+        <v>19841</v>
+      </c>
+      <c r="D52">
+        <v>18778.7</v>
+      </c>
+      <c r="E52">
+        <v>18975.900000000001</v>
+      </c>
+      <c r="F52">
+        <v>18844.7</v>
+      </c>
+      <c r="G52">
+        <v>19231.400000000001</v>
+      </c>
+      <c r="H52">
+        <v>18751.099999999999</v>
+      </c>
+      <c r="I52">
+        <v>19134.900000000001</v>
+      </c>
+      <c r="J52">
+        <v>18824.400000000001</v>
+      </c>
+      <c r="K52">
+        <v>19045.8</v>
+      </c>
+      <c r="L52">
+        <v>18714.400000000001</v>
+      </c>
+      <c r="M52">
         <v>18897.7</v>
       </c>
     </row>
